--- a/tests/data/output/一级测试用例-09001_result.xlsx
+++ b/tests/data/output/一级测试用例-09001_result.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"id_card_no":"15092719551204669X"}</t>
+          <t>{"id_card_no":"120104193409038808"}</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"id_card_no":"230706193503128448"}</t>
+          <t>{"id_card_no":"431301198407011271"}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"id_card_no":"371726195401053904"}</t>
+          <t>{"id_card_no":"140826193005137498"}</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"id_card_no":"330483194305285068"}</t>
+          <t>{"id_card_no":"310104197301120715"}</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"id_card_no":"130901193402195225"}</t>
+          <t>{"id_card_no":"140211193803317744"}</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"id_card_no":"441702196505155536"}</t>
+          <t>{"id_card_no":"542133193112133697"}</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"id_card_no":"370402196602280763"}</t>
+          <t>{"id_card_no":"210521198112309569"}</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"id_card_no":"450101198502107214"}</t>
+          <t>{"id_card_no":"340311196511025711"}</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"id_card_no":"22242419760323041X"}</t>
+          <t>{"id_card_no":"450804196201135535"}</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"id_card_no":"210282196102067428"}</t>
+          <t>{"id_card_no":"411729196908288901"}</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"id_card_no":"610502194109093557"}</t>
+          <t>{"id_card_no":"330225195304149574"}</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"id_card_no":"37172319320112567X"}</t>
+          <t>{"id_card_no":"130984194710052889"}</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"id_card_no":"420302196311285408"}</t>
+          <t>{"id_card_no":"433130196102123508"}</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"id_card_no":"520502196602172109"}</t>
+          <t>{"id_card_no":"63010519760830881X"}</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"id_card_no":"532532193712173514"}</t>
+          <t>{"id_card_no":"120114199403222989"}</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"id_card_no":"42122119971223321X"}</t>
+          <t>{"id_card_no":"420222194901254370"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-09001_result.xlsx
+++ b/tests/data/output/一级测试用例-09001_result.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>keyValue</t>
+          <t>key_value_main</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"id_card_no":"120104193409038808"}</t>
+          <t>{"id_card_no":"410505194107317010"}</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"id_card_no":"431301198407011271"}</t>
+          <t>{"id_card_no":"542228197504305710"}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"id_card_no":"140826193005137498"}</t>
+          <t>{"id_card_no":"621002200104080216"}</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"id_card_no":"310104197301120715"}</t>
+          <t>{"id_card_no":"361001197903257474"}</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"id_card_no":"140211193803317744"}</t>
+          <t>{"id_card_no":"420204195903243220"}</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"id_card_no":"542133193112133697"}</t>
+          <t>{"id_card_no":"120103199911039962"}</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"id_card_no":"210521198112309569"}</t>
+          <t>{"id_card_no":"420323193203141448"}</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"id_card_no":"340311196511025711"}</t>
+          <t>{"id_card_no":"360402197912055054"}</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"id_card_no":"450804196201135535"}</t>
+          <t>{"id_card_no":"360104195003054860"}</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"id_card_no":"411729196908288901"}</t>
+          <t>{"id_card_no":"653022199106233404"}</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"id_card_no":"330225195304149574"}</t>
+          <t>{"id_card_no":"130621194205248870"}</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"id_card_no":"130984194710052889"}</t>
+          <t>{"id_card_no":"141027195208228173"}</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"id_card_no":"433130196102123508"}</t>
+          <t>{"id_card_no":"350526193201318539"}</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"id_card_no":"63010519760830881X"}</t>
+          <t>{"id_card_no":"341500199901260684"}</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"id_card_no":"120114199403222989"}</t>
+          <t>{"id_card_no":"53040219810227645X"}</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"id_card_no":"420222194901254370"}</t>
+          <t>{"id_card_no":"350505197702267377"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-09001_result.xlsx
+++ b/tests/data/output/一级测试用例-09001_result.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"id_card_no":"410505194107317010"}</t>
+          <t>{"id_card_no":"511702197810318242"}</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"id_card_no":"542228197504305710"}</t>
+          <t>{"id_card_no":"320684195401316370"}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"id_card_no":"621002200104080216"}</t>
+          <t>{"id_card_no":"44070319740531275X"}</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"id_card_no":"361001197903257474"}</t>
+          <t>{"id_card_no":"653024198311075685"}</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"id_card_no":"420204195903243220"}</t>
+          <t>{"id_card_no":"131124199808217200"}</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"id_card_no":"120103199911039962"}</t>
+          <t>{"id_card_no":"341226195711114722"}</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"id_card_no":"420323193203141448"}</t>
+          <t>{"id_card_no":"150921194208041410"}</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"id_card_no":"360402197912055054"}</t>
+          <t>{"id_card_no":"370211194903225027"}</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"id_card_no":"360104195003054860"}</t>
+          <t>{"id_card_no":"130524195405215051"}</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"id_card_no":"653022199106233404"}</t>
+          <t>{"id_card_no":"341822199112317240"}</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"id_card_no":"130621194205248870"}</t>
+          <t>{"id_card_no":"411400195605281709"}</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"id_card_no":"141027195208228173"}</t>
+          <t>{"id_card_no":"422828195911099009"}</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"id_card_no":"350526193201318539"}</t>
+          <t>{"id_card_no":"469007199402086652"}</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"id_card_no":"341500199901260684"}</t>
+          <t>{"id_card_no":"610429196006026566"}</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"id_card_no":"53040219810227645X"}</t>
+          <t>{"id_card_no":"330703194002282526"}</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"id_card_no":"350505197702267377"}</t>
+          <t>{"id_card_no":"350524195304059417"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-09001_result.xlsx
+++ b/tests/data/output/一级测试用例-09001_result.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"id_card_no":"511702197810318242"}</t>
+          <t>{"id_card_no":"46000019540509776X"}</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"id_card_no":"320684195401316370"}</t>
+          <t>{"id_card_no":"150902200010206952"}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"id_card_no":"44070319740531275X"}</t>
+          <t>{"id_card_no":"371625199011029294"}</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"id_card_no":"653024198311075685"}</t>
+          <t>{"id_card_no":"652924197704203477"}</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"id_card_no":"131124199808217200"}</t>
+          <t>{"id_card_no":"230902193507092089"}</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"id_card_no":"341226195711114722"}</t>
+          <t>{"id_card_no":"232722196803204524"}</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"id_card_no":"150921194208041410"}</t>
+          <t>{"id_card_no":"371700195009218846"}</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"id_card_no":"370211194903225027"}</t>
+          <t>{"id_card_no":"410823194209253862"}</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"id_card_no":"130524195405215051"}</t>
+          <t>{"id_card_no":"430482194906109278"}</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"id_card_no":"341822199112317240"}</t>
+          <t>{"id_card_no":"542430193605122790"}</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"id_card_no":"411400195605281709"}</t>
+          <t>{"id_card_no":"630202194110045146"}</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"id_card_no":"422828195911099009"}</t>
+          <t>{"id_card_no":"610329193905231257"}</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"id_card_no":"469007199402086652"}</t>
+          <t>{"id_card_no":"141082193809188408"}</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"id_card_no":"610429196006026566"}</t>
+          <t>{"id_card_no":"350000196911011235"}</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"id_card_no":"330703194002282526"}</t>
+          <t>{"id_card_no":"411523192909211861"}</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"id_card_no":"350524195304059417"}</t>
+          <t>{"id_card_no":"120223193111233648"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-09001_result.xlsx
+++ b/tests/data/output/一级测试用例-09001_result.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"id_card_no":"46000019540509776X"}</t>
+          <t>{"id_card_no":"620200194711288261"}</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"id_card_no":"150902200010206952"}</t>
+          <t>{"id_card_no":"370725193812084610"}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"id_card_no":"371625199011029294"}</t>
+          <t>{"id_card_no":"130528193108227343"}</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"id_card_no":"652924197704203477"}</t>
+          <t>{"id_card_no":"410727195204216557"}</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"id_card_no":"230902193507092089"}</t>
+          <t>{"id_card_no":"360983193007115958"}</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"id_card_no":"232722196803204524"}</t>
+          <t>{"id_card_no":"65320019420103979X"}</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"id_card_no":"371700195009218846"}</t>
+          <t>{"id_card_no":"130530197303072631"}</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"id_card_no":"410823194209253862"}</t>
+          <t>{"id_card_no":"610301199204024969"}</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"id_card_no":"430482194906109278"}</t>
+          <t>{"id_card_no":"120115193304309711"}</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"id_card_no":"542430193605122790"}</t>
+          <t>{"id_card_no":"652929193911193172"}</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"id_card_no":"630202194110045146"}</t>
+          <t>{"id_card_no":"450321197208193686"}</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"id_card_no":"610329193905231257"}</t>
+          <t>{"id_card_no":"140931196202031975"}</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"id_card_no":"141082193809188408"}</t>
+          <t>{"id_card_no":"420323195102197759"}</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"id_card_no":"350000196911011235"}</t>
+          <t>{"id_card_no":"370124195904277807"}</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"id_card_no":"411523192909211861"}</t>
+          <t>{"id_card_no":"652327196206144592"}</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"id_card_no":"120223193111233648"}</t>
+          <t>{"id_card_no":"231225198410242263"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-09001_result.xlsx
+++ b/tests/data/output/一级测试用例-09001_result.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"id_card_no":"620200194711288261"}</t>
+          <t>{"id_card_no":"150522196908101537"}</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"id_card_no":"370725193812084610"}</t>
+          <t>{"id_card_no":"440233198306154528"}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"id_card_no":"130528193108227343"}</t>
+          <t>{"id_card_no":"231225197805195540"}</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"id_card_no":"410727195204216557"}</t>
+          <t>{"id_card_no":"440281193712017121"}</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"id_card_no":"360983193007115958"}</t>
+          <t>{"id_card_no":"210213198002298356"}</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"id_card_no":"65320019420103979X"}</t>
+          <t>{"id_card_no":"421102198405310220"}</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"id_card_no":"130530197303072631"}</t>
+          <t>{"id_card_no":"150802196705234875"}</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"id_card_no":"610301199204024969"}</t>
+          <t>{"id_card_no":"622922195407102971"}</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"id_card_no":"120115193304309711"}</t>
+          <t>{"id_card_no":"510403195811253655"}</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"id_card_no":"652929193911193172"}</t>
+          <t>{"id_card_no":"420201199003022587"}</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"id_card_no":"450321197208193686"}</t>
+          <t>{"id_card_no":"150981197812285243"}</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"id_card_no":"140931196202031975"}</t>
+          <t>{"id_card_no":"320684194405045171"}</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"id_card_no":"420323195102197759"}</t>
+          <t>{"id_card_no":"440607194301161228"}</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"id_card_no":"370124195904277807"}</t>
+          <t>{"id_card_no":"445303195011153315"}</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"id_card_no":"652327196206144592"}</t>
+          <t>{"id_card_no":"150821197206198842"}</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"id_card_no":"231225198410242263"}</t>
+          <t>{"id_card_no":"410600198309243242"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-09001_result.xlsx
+++ b/tests/data/output/一级测试用例-09001_result.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"id_card_no":"150522196908101537"}</t>
+          <t>{"id_card_no":"51152819490812471X"}</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"id_card_no":"440233198306154528"}</t>
+          <t>{"id_card_no":"210502197103277629"}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"id_card_no":"231225197805195540"}</t>
+          <t>{"id_card_no":"231221195012237689"}</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"id_card_no":"440281193712017121"}</t>
+          <t>{"id_card_no":"220623198407026726"}</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"id_card_no":"210213198002298356"}</t>
+          <t>{"id_card_no":"440704199809110658"}</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"id_card_no":"421102198405310220"}</t>
+          <t>{"id_card_no":"230302195712055646"}</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"id_card_no":"150802196705234875"}</t>
+          <t>{"id_card_no":"610521195508214911"}</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"id_card_no":"622922195407102971"}</t>
+          <t>{"id_card_no":"511724199105058964"}</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"id_card_no":"510403195811253655"}</t>
+          <t>{"id_card_no":"62032119731027832X"}</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"id_card_no":"420201199003022587"}</t>
+          <t>{"id_card_no":"652123194104080975"}</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"id_card_no":"150981197812285243"}</t>
+          <t>{"id_card_no":"61072919730315491X"}</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"id_card_no":"320684194405045171"}</t>
+          <t>{"id_card_no":"15010319450919158X"}</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"id_card_no":"440607194301161228"}</t>
+          <t>{"id_card_no":"51160019920716338X"}</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"id_card_no":"445303195011153315"}</t>
+          <t>{"id_card_no":"34060419530921471X"}</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"id_card_no":"150821197206198842"}</t>
+          <t>{"id_card_no":"530424194408237330"}</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"id_card_no":"410600198309243242"}</t>
+          <t>{"id_card_no":"131023199008210906"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-09001_result.xlsx
+++ b/tests/data/output/一级测试用例-09001_result.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"id_card_no":"51152819490812471X"}</t>
+          <t>{"id_card_no":"341822195809067271"}</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"id_card_no":"210502197103277629"}</t>
+          <t>{"id_card_no":"130925199012076480"}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"id_card_no":"231221195012237689"}</t>
+          <t>{"id_card_no":"411424197312235354"}</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"id_card_no":"220623198407026726"}</t>
+          <t>{"id_card_no":"469003198605257204"}</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"id_card_no":"440704199809110658"}</t>
+          <t>{"id_card_no":"433127198208110124"}</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"id_card_no":"230302195712055646"}</t>
+          <t>{"id_card_no":"110109195808146135"}</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"id_card_no":"610521195508214911"}</t>
+          <t>{"id_card_no":"130900194009249483"}</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"id_card_no":"511724199105058964"}</t>
+          <t>{"id_card_no":"63022219760321025X"}</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"id_card_no":"62032119731027832X"}</t>
+          <t>{"id_card_no":"610202196908275392"}</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"id_card_no":"652123194104080975"}</t>
+          <t>{"id_card_no":"420502197606048931"}</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"id_card_no":"61072919730315491X"}</t>
+          <t>{"id_card_no":"431022193712175830"}</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"id_card_no":"15010319450919158X"}</t>
+          <t>{"id_card_no":"350801193911219606"}</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"id_card_no":"51160019920716338X"}</t>
+          <t>{"id_card_no":"530323199308288633"}</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"id_card_no":"34060419530921471X"}</t>
+          <t>{"id_card_no":"532326193507171976"}</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"id_card_no":"530424194408237330"}</t>
+          <t>{"id_card_no":"140522195609300441"}</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"id_card_no":"131023199008210906"}</t>
+          <t>{"id_card_no":"410727198805041274"}</t>
         </is>
       </c>
     </row>
